--- a/Conversation Data.xlsx
+++ b/Conversation Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\나동빈\Desktop\소프트웨어 마에스트로\팀 프로젝트\Project Source Code\toast-content-crawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8034C5D7-74BA-410C-BDEF-766B9A942AFE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9104472-8D82-4DDC-9FA9-DBBFCD532641}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12632,8 +12632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2904" workbookViewId="0">
-      <selection activeCell="C2908" sqref="C2908"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="C214" sqref="C214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
